--- a/medicine/Handicap/Inspiration_porn/Inspiration_porn.xlsx
+++ b/medicine/Handicap/Inspiration_porn/Inspiration_porn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'inspiration porn est la représentation de personnes handicapées en tant que sources d'inspiration, exclusivement, ou en partie sur la base de leur handicap[1],[2]. Ce terme a été inventé en 2012 par une militante pour les droits des personnes handicapées, Stella Young, dans un éditorial du webzine de l'Australian Broadcasting Corporation, Ramp Up[3], et détaillé plus tard dans sa conférence TEDx. Elle rejette l'idée selon laquelle les personnes handicapées qui exercent des activités ordinaires devraient être considérées comme extraordinaires uniquement en raison de leur handicap.
-Les critiques de l’inspiration porn font valoir que cela présente les personnes handicapées comme différentes ou autres, qu'il met en scène le handicap comme étant un fardeau (plutôt que de se concentrer sur les obstacles sociétaux à l'inclusion que rencontrent les personnes handicapées), et que la réduction des personnes handicapées au statut de source d'inspiration les déshumanise[4],[5].
-En 2016, l'émission de télévision Speechless a exploré ce concept dans un épisode où elle explique que l’inspiration porn consiste à "représenter des personnes handicapées comme unidimensionnelles ; n'existant que pour réchauffer les cœurs et ouvrir les esprits des personnes valides[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inspiration porn est la représentation de personnes handicapées en tant que sources d'inspiration, exclusivement, ou en partie sur la base de leur handicap,. Ce terme a été inventé en 2012 par une militante pour les droits des personnes handicapées, Stella Young, dans un éditorial du webzine de l'Australian Broadcasting Corporation, Ramp Up, et détaillé plus tard dans sa conférence TEDx. Elle rejette l'idée selon laquelle les personnes handicapées qui exercent des activités ordinaires devraient être considérées comme extraordinaires uniquement en raison de leur handicap.
+Les critiques de l’inspiration porn font valoir que cela présente les personnes handicapées comme différentes ou autres, qu'il met en scène le handicap comme étant un fardeau (plutôt que de se concentrer sur les obstacles sociétaux à l'inclusion que rencontrent les personnes handicapées), et que la réduction des personnes handicapées au statut de source d'inspiration les déshumanise,.
+En 2016, l'émission de télévision Speechless a exploré ce concept dans un épisode où elle explique que l’inspiration porn consiste à "représenter des personnes handicapées comme unidimensionnelles ; n'existant que pour réchauffer les cœurs et ouvrir les esprits des personnes valides.
 </t>
         </is>
       </c>
